--- a/data/Subset1_WithDialogActs/Ladder problem 1_ Grade 7.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Ladder problem 1_ Grade 7.xlsx_with_dialog_acts.xlsx
@@ -623,12 +623,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -775,12 +775,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1079,12 +1079,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1117,12 +1117,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1615,12 +1615,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1847,12 +1847,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1885,12 +1885,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2117,12 +2117,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2345,12 +2345,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2687,12 +2687,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2877,12 +2877,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3371,12 +3371,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3561,12 +3561,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4017,12 +4017,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
